--- a/result_0420.xlsx
+++ b/result_0420.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01_data\50_Personal\16_WQIModel\WQi-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A468AE-483E-4B68-89DE-0899FB8B7A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135FCF96-1A98-4B4A-A665-442528920812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,10 @@
     <sheet name="ANN" sheetId="3" r:id="rId3"/>
     <sheet name="GradientBoostedTree" sheetId="4" r:id="rId4"/>
     <sheet name="SupportVector" sheetId="5" r:id="rId5"/>
+    <sheet name="FeatImp-RandomForest" sheetId="6" r:id="rId6"/>
+    <sheet name="FeatImp-SVR" sheetId="7" r:id="rId7"/>
+    <sheet name="FeatImp-GBR" sheetId="8" r:id="rId8"/>
+    <sheet name="FeatImp-ANN" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="59">
   <si>
     <t>RMSE:</t>
   </si>
@@ -161,12 +165,78 @@
   <si>
     <t>Khác với các mô hình tuyến tính, importance value của các feature chính là trọng số =&gt; tổng bằng 1.</t>
   </si>
+  <si>
+    <t>Giống tôm</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>Mực nước</t>
+  </si>
+  <si>
+    <t>Độ đục</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>Độ trong</t>
+  </si>
+  <si>
+    <t>Nhiệt độ</t>
+  </si>
+  <si>
+    <t>Công nghệ nuôi</t>
+  </si>
+  <si>
+    <t>Độ màu</t>
+  </si>
+  <si>
+    <t>Loại ao</t>
+  </si>
+  <si>
+    <t>Độ cứng</t>
+  </si>
+  <si>
+    <t>Độ mặn</t>
+  </si>
+  <si>
+    <t>TDS</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Tuổi tôm</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cũ </t>
+  </si>
+  <si>
+    <t>3 layer: 120-80-40</t>
+  </si>
+  <si>
+    <t>72-60-32</t>
+  </si>
+  <si>
+    <t>64-32-16</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +256,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -223,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -233,6 +309,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -248,6 +329,246 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>182879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47342</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3360E711-7B54-3B83-FD16-7DE2B3A60823}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4091940" y="365759"/>
+          <a:ext cx="4724400" cy="4253583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>584677</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>66211</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C50F8DC-6B81-D57A-E0A7-82F552A7B3BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4701540" y="5669280"/>
+          <a:ext cx="5461477" cy="5003971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>586895</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>157702</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D689B5DB-6394-0641-E7D3-E8D702E3ED3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3192780" y="381000"/>
+          <a:ext cx="5928515" cy="5080222"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>7520</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>16669</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76DB227E-96A2-A953-B91F-C8E528CFE7E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4808220" y="335280"/>
+          <a:ext cx="5547260" cy="4984909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247512</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>39580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFE06EC7-CB71-BB9D-0556-F3FD2038F20B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3291840" y="464820"/>
+          <a:ext cx="5490072" cy="5061160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -515,7 +836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223DE347-9C29-4C1C-BDE8-4DF6D60F807A}">
   <dimension ref="A3:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -821,19 +1142,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2A2652-F179-4482-9A44-DB0DBAF2F950}">
-  <dimension ref="A2:B18"/>
+  <dimension ref="A2:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.77734375" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -841,116 +1164,269 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="7">
         <v>15.837</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="C4" s="7">
+        <v>15.11</v>
+      </c>
+      <c r="D4" s="7">
+        <v>15.035</v>
+      </c>
+      <c r="E4" s="7">
+        <v>15.071999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="7">
         <v>11.401</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="C5" s="7">
+        <v>10.678000000000001</v>
+      </c>
+      <c r="D5" s="7">
+        <v>10.707000000000001</v>
+      </c>
+      <c r="E5" s="7">
+        <v>10.923</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="7">
         <v>7.452</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="C6" s="7">
+        <v>6.85</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6.9429999999999996</v>
+      </c>
+      <c r="E6" s="7">
+        <v>7.1239999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="7">
         <v>0.59699999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="C7" s="7">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.63500000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B9">
+      <c r="B12" s="7">
         <v>16.734999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="C12" s="7">
+        <v>15.881</v>
+      </c>
+      <c r="D12" s="7">
+        <v>15.616</v>
+      </c>
+      <c r="E12" s="7">
+        <v>16.196999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B10">
+      <c r="B13" s="7">
         <v>12.295</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="C13" s="7">
+        <v>11.44</v>
+      </c>
+      <c r="D13" s="7">
+        <v>11.222</v>
+      </c>
+      <c r="E13" s="7">
+        <v>11.678000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B11">
+      <c r="B14" s="7">
         <v>8.0739999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="C14" s="7">
+        <v>7.51</v>
+      </c>
+      <c r="D14" s="7">
+        <v>7.3559999999999999</v>
+      </c>
+      <c r="E14" s="7">
+        <v>7.6559999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B12">
+      <c r="B15" s="7">
         <v>0.54900000000000004</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="C15" s="7">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.57799999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B15">
+      <c r="B19" s="7">
         <v>17.135000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="C19" s="7">
+        <v>16.715</v>
+      </c>
+      <c r="D19" s="7">
+        <v>16.994</v>
+      </c>
+      <c r="E19" s="7">
+        <v>16.893999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B16">
+      <c r="B20" s="7">
         <v>12.616</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="C20" s="7">
+        <v>11.907</v>
+      </c>
+      <c r="D20" s="7">
+        <v>12.157999999999999</v>
+      </c>
+      <c r="E20" s="7">
+        <v>12.481</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B17">
+      <c r="B21" s="7">
         <v>8.2420000000000009</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="C21" s="7">
+        <v>7.7729999999999997</v>
+      </c>
+      <c r="D21" s="7">
+        <v>7.931</v>
+      </c>
+      <c r="E21" s="7">
+        <v>8.2780000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B18">
+      <c r="B22" s="7">
         <v>0.52800000000000002</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.54100000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -1272,4 +1748,984 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C702DF0-3FB5-4F50-9893-DF4E5D308E14}">
+  <dimension ref="B2:D48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="5">
+        <v>8.2867300000000008E-3</v>
+      </c>
+      <c r="D3" s="5">
+        <v>8.6264375983426608E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.702187E-2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2.6289521489677201E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3.2613219999999998E-2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1.26196E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4.705881E-2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1.400002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4.7090029999999998E-2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5.8719899999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="5">
+        <v>5.0066310000000003E-2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1.4791449999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5">
+        <v>5.2082980000000001E-2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2.187391E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5.2267880000000003E-2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1.5247470000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="5">
+        <v>5.2567179999999998E-2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>7.0150110011329203E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="5">
+        <v>5.4445180000000003E-2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1.7566310000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="5">
+        <v>5.7379289999999999E-2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>3.9320625769305798E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="5">
+        <v>6.6891859999999997E-2</v>
+      </c>
+      <c r="D14" s="5">
+        <v>3.938411E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="5">
+        <v>7.2058700000000003E-2</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3.1735729999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="5">
+        <v>8.3127389999999995E-2</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3.5948109999999998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.13873615</v>
+      </c>
+      <c r="D17" s="5">
+        <v>6.5238820000000003E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.15830642</v>
+      </c>
+      <c r="D18" s="5">
+        <v>7.3480599999999993E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="5">
+        <v>7.2323700000000001E-3</v>
+      </c>
+      <c r="D33" s="5">
+        <v>3.36682666550133E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="5">
+        <v>3.7986409999999998E-2</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1.4582396138738301E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="5">
+        <v>3.8970570000000003E-2</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1.8847279199999999E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="5">
+        <v>5.346447E-2</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1.8466474799999999E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="5">
+        <v>5.703507E-2</v>
+      </c>
+      <c r="D37" s="5">
+        <v>2.09431592E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="5">
+        <v>5.8049679999999999E-2</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1.7289931499999999E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="5">
+        <v>6.0181440000000003E-2</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1.8435846609952699E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="5">
+        <v>6.3945340000000003E-2</v>
+      </c>
+      <c r="D40" s="5">
+        <v>2.3506761500000002E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="5">
+        <v>6.8347699999999997E-2</v>
+      </c>
+      <c r="D41" s="5">
+        <v>2.5992479699999999E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="5">
+        <v>7.0834069999999999E-2</v>
+      </c>
+      <c r="D42" s="5">
+        <v>2.3685792699999998E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="5">
+        <v>7.1914679999999995E-2</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1.6764439300000001E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="5">
+        <v>9.7892149999999997E-2</v>
+      </c>
+      <c r="D44" s="5">
+        <v>3.0909534633065702E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="5">
+        <v>9.914394E-2</v>
+      </c>
+      <c r="D45" s="5">
+        <v>3.48877738E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0.10406912</v>
+      </c>
+      <c r="D46" s="5">
+        <v>2.7743073200000002E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0.14362864</v>
+      </c>
+      <c r="D47" s="5">
+        <v>5.1829437500000002E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0.31728051000000002</v>
+      </c>
+      <c r="D48" s="5">
+        <v>8.5717061300000005E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD285EB9-A874-4A8C-BC0E-FCAF6774883C}">
+  <dimension ref="B2:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="5">
+        <v>6.2061280000000003E-2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4.9339400000000004E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6.3291420000000001E-2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4.0596800000000004E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6.6284739999999995E-2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>5.4316700000000004E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="5">
+        <v>8.8540980000000005E-2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>6.7391999999999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="5">
+        <v>8.9183159999999997E-2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4.7316757369878998E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="5">
+        <v>9.5086580000000004E-2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>5.4813362042662496E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.10532097</v>
+      </c>
+      <c r="D9" s="5">
+        <v>6.9442999999999996E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.11562378</v>
+      </c>
+      <c r="D10" s="5">
+        <v>7.7950299999999997E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.11932996999999999</v>
+      </c>
+      <c r="D11" s="5">
+        <v>8.2501699999999994E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.11963517999999999</v>
+      </c>
+      <c r="D12" s="5">
+        <v>5.1176711867020096E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.13625522000000001</v>
+      </c>
+      <c r="D13" s="5">
+        <v>6.07606997881854E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.16077288000000001</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1.054661E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.16784441</v>
+      </c>
+      <c r="D15" s="5">
+        <v>9.5359799999999995E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.21627724000000001</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1.2359469999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.24686731000000001</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1.184663E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.34285620999999999</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1.519207E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="C19" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47979F29-1CBD-45DD-B6AD-0AEF9CC690D4}">
+  <dimension ref="B4:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="4" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:4">
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="5">
+        <v>8.4461999999999992E-3</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3.8839390697236798E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2.5353560000000001E-2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1.17818081E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3.2298970000000003E-2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1.2619272799999999E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3.7996099999999998E-2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1.6113663222203001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4.5801509999999997E-2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2.2674239800000002E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5.4267299999999997E-2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2.4542002999999998E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="5">
+        <v>5.579282E-2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2.1666308E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="5">
+        <v>6.1281500000000003E-2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2.9365862400000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="5">
+        <v>7.9326649999999999E-2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>3.0553441400000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="5">
+        <v>8.3320169999999999E-2</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2.6130162200000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="5">
+        <v>8.3460969999999995E-2</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3.7845998999999999E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="5">
+        <v>9.3290869999999998E-2</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2.80047851E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="5">
+        <v>9.4015879999999996E-2</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2.9997851544464799E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="5">
+        <v>9.8541999999999894E-2</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2.7601071964107301E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.14954721000000001</v>
+      </c>
+      <c r="D19" s="5">
+        <v>5.8307730399999999E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.33804492000000003</v>
+      </c>
+      <c r="D20" s="5">
+        <v>9.92421395E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0742ECB9-D783-4BF2-BD4E-06F075D08A50}">
+  <dimension ref="B4:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="4" spans="2:4">
+      <c r="B4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3.1008819999999999E-2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3.5529300000000002E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5.2401919999999998E-2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3.1123700000000002E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5.6136030000000003E-2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4.5696299999999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="5">
+        <v>5.7605530000000002E-2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2.1503387386409599E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="5">
+        <v>6.3930929999999997E-2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2.6944400000000002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="5">
+        <v>6.8936750000000005E-2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4.65694E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="5">
+        <v>7.7980740000000007E-2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5.4214700000000003E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="5">
+        <v>8.4498900000000002E-2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>8.2536599999999995E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5">
+        <v>9.7690639999999995E-2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>6.4675673772601697E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.10102083000000001</v>
+      </c>
+      <c r="D13" s="5">
+        <v>4.4102799999999999E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.10125663</v>
+      </c>
+      <c r="D14" s="5">
+        <v>9.0669400000000008E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.12609282999999999</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3.1072199999999999E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.20077184000000001</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1.008887E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.20506917</v>
+      </c>
+      <c r="D17" s="5">
+        <v>9.7974915888557907E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.21399977000000001</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1.29776283670515E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.29033108000000002</v>
+      </c>
+      <c r="D19" s="5">
+        <v>7.1622700000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>